--- a/artfynd/A 29792-2025 artfynd.xlsx
+++ b/artfynd/A 29792-2025 artfynd.xlsx
@@ -781,7 +781,7 @@
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Fågelinventering Hålsberget 2024</t>
+          <t>Fågelinventering Hålsberget 2024-2025</t>
         </is>
       </c>
     </row>
